--- a/predictions/single/AdaBoostRegressor/Ictus.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ictus.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4094915450823137</v>
+        <v>0.4089912286591253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9919253873748887</v>
+        <v>0.9919352529297597</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Ictus.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ictus.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4089912286591253</v>
+        <v>0.4115796658347678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9919352529297597</v>
+        <v>0.9918842124925425</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Ictus.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4115796658347678</v>
+        <v>0.4116377125557618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9918842124925425</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9918830678906776</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5016417740084976</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/AdaBoostRegressor/Ictus.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4116377125557618</v>
+        <v>0.4202169370115176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9918830678906776</v>
+        <v>0.9917138973304156</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5016417740084976</v>
+        <v>0.5082019190462719</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/AdaBoostRegressor/Ictus.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4202169370115176</v>
+        <v>0.4100528643456517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9917138973304156</v>
+        <v>0.9919143189275302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5082019190462719</v>
+        <v>0.4972642744454743</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,6 +499,12 @@
         <is>
           <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1218615918667638</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Ictus.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ictus.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4100528643456517</v>
+        <v>0.3869996236395433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9919143189275302</v>
+        <v>0.9923688972715541</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4972642744454743</v>
+        <v>0.487753624889519</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor())])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=150))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1218615918667638</v>
+        <v>0.1259496415167329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.9840000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Ictus.xlsx
+++ b/predictions/single/AdaBoostRegressor/Ictus.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3869996236395433</v>
+        <v>0.4061793025036406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9923688972715541</v>
+        <v>0.9919907002636758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.487753624889519</v>
+        <v>0.5025197286154568</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.5))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1259496415167329</v>
+        <v>0.122648122766744</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9840000000000001</v>
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>
